--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/TriggerToken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A1A35-EA96-F144-82F0-C18299127C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EEC55C-3C74-EE4C-93DF-CD7C55510468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,6 +124,34 @@
   </si>
   <si>
     <t>將名憲學長的專案部署至雲端主機，並且能從外部連線、寫入資料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署SFTP Server、部署名憲學長專案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20222/8/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2HR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>風險供給開始表單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資金供給表單完成、核保步驟、其他頁面，完成確認後就可以開始寫成前端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 HR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -745,13 +773,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -837,24 +865,48 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+    <row r="4" spans="1:8" ht="51">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44782</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+    <row r="5" spans="1:8" ht="68">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -967,10 +1019,13 @@
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:11">
       <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="18">
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18">
       <c r="A18" s="16" t="s">
         <v>3</v>
       </c>
@@ -984,8 +1039,11 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" ht="18">
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
         <v>0</v>
@@ -997,8 +1055,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" ht="18">
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
         <v>2</v>
@@ -1011,13 +1072,18 @@
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" ht="18">
+    <row r="21" spans="1:11" ht="18">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="9"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
